--- a/prueba23/prueba23.xlsx
+++ b/prueba23/prueba23.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enkro\P00106-ENKROSS_PRUEBA3_AUTOMATIZACION\prueba23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA9B142-2E38-4060-9B2D-EF4191E92685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1BE635D-38E5-4414-B55F-FA2AC6E6B5B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{96E3A427-0017-4F70-9894-F559001B3A7F}"/>
   </bookViews>
@@ -1925,7 +1925,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1961,9 +1961,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2302,8 +2299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82887E08-31C3-435B-A60F-E2320E3C651F}">
   <dimension ref="A1:K334"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2614,7 +2611,7 @@
       <c r="E10" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="11" t="s">
         <v>30</v>
       </c>
       <c r="G10" s="5" t="s">
@@ -12719,6 +12716,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101005CCE8C70ADE6FD4DB948CF3BFC52CAB6" ma:contentTypeVersion="18" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="d0d6baa5fddc89d1005b112fecbf2377">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4578e3cf-dc59-46b9-b473-9d64d86ba65a" xmlns:ns3="565c94a9-9f9d-407f-a547-016888b2b680" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6d27b4b9bbf274307dd4fa983c05e6fa" ns2:_="" ns3:_="">
     <xsd:import namespace="4578e3cf-dc59-46b9-b473-9d64d86ba65a"/>
@@ -12973,16 +12979,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28EAFA9E-12D6-424C-9C02-26DEFCB64C43}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45B69382-A964-48DB-8DA5-5F0FF215709A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12999,12 +13004,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28EAFA9E-12D6-424C-9C02-26DEFCB64C43}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>